--- a/Exercise_book_calculation.xlsx
+++ b/Exercise_book_calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\001_temp\Cornell_notebook\Cornell_Notbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E09E82-0F45-45B6-8936-1B12126605CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7085BF-2755-48AB-8596-7204B9FE2D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1716" yWindow="972" windowWidth="15588" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7692" yWindow="372" windowWidth="15588" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A5_Cornell_config" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>A0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,30 +180,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>left_binding_margin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>right_binding_margin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>top_binding_margin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bottom_binding_margin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>border_enabled</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>base_size_3mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Height_P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,7 +196,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Base_row_height_9mm</t>
+    <t>mm_2_g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_margin_mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_margin_g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_binding_margin_mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_binding_margin_mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_binding_margin_mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bottom_binding_margin_mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_row_height_mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_margin_g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_binding_margin_g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_binding_margin_g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bottom_binding_margin_g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_size_-g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_row_height_g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_size_mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -624,7 +660,7 @@
     <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -632,7 +668,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -643,8 +679,14 @@
         <f>Paper_size!C6</f>
         <v>595</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2">
+        <v>2.8346456692913402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -652,255 +694,309 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B4">
-        <f>7*B8</f>
-        <v>59.527559055118139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4">
+        <f>$F$2</f>
+        <v>2.8346456692913402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <f>B5*$F$2+$F$4</f>
+        <v>53.858267716535465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F8" si="0">B6*$F$2+$F$4</f>
+        <v>2.8346456692913402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>2.8346456692913402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B8">
-        <f>3*2.83464566929134</f>
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2.8346456692913402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9">
+        <f>B9*$F$2</f>
         <v>8.5039370078740202</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9">
-        <f>B8*3</f>
-        <v>25.511811023622059</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10">
+        <f>B10*$F$2</f>
+        <v>25.511811023622062</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="14" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B24">
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="C24">
-        <f>$B$9*B24</f>
-        <v>25.511811023622059</v>
-      </c>
-      <c r="D24" t="b">
+      <c r="C14">
+        <f>$F$10*B14</f>
+        <v>25.511811023622062</v>
+      </c>
+      <c r="D14" t="b">
         <v>0</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F14" s="2">
         <v>3</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B25">
+      <c r="B15">
         <v>3</v>
       </c>
-      <c r="C25">
-        <f>$B$9*B25</f>
-        <v>76.535433070866176</v>
-      </c>
-      <c r="D25" t="b">
+      <c r="C15">
+        <f>$F$10*B15</f>
+        <v>76.535433070866191</v>
+      </c>
+      <c r="D15" t="b">
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="E15">
         <v>1</v>
       </c>
-      <c r="F25">
+      <c r="F15">
         <v>1</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B26">
+      <c r="B16">
         <v>1</v>
       </c>
-      <c r="C26">
-        <f>$B$9*B26</f>
-        <v>25.511811023622059</v>
-      </c>
-      <c r="D26" t="b">
+      <c r="C16">
+        <f>$F$10*B16</f>
+        <v>25.511811023622062</v>
+      </c>
+      <c r="D16" t="b">
         <v>0</v>
       </c>
-      <c r="E26">
+      <c r="E16">
         <v>2</v>
       </c>
-      <c r="F26">
+      <c r="F16">
         <v>1</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="5">
-        <f>TRUNC(($C$2-C24-C25-C26-C28-C29)/B9)</f>
+      <c r="B17" s="5">
+        <f>TRUNC((C2-C14-C15-C16-C18-C19)/F10)</f>
         <v>15</v>
       </c>
-      <c r="C27" s="5">
-        <f>$B$9*B27</f>
-        <v>382.6771653543309</v>
-      </c>
-      <c r="D27" t="b">
+      <c r="C17" s="5">
+        <f>$F$10*B17</f>
+        <v>382.67716535433095</v>
+      </c>
+      <c r="D17" t="b">
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="E17">
         <v>3</v>
       </c>
-      <c r="F27">
+      <c r="F17">
         <v>2</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G17" t="s">
         <v>19</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B28">
+      <c r="B18">
         <v>2</v>
       </c>
-      <c r="C28">
-        <f>$B$9*B28</f>
-        <v>51.023622047244118</v>
-      </c>
-      <c r="D28" t="b">
+      <c r="C18">
+        <f>$F$10*B18</f>
+        <v>51.023622047244125</v>
+      </c>
+      <c r="D18" t="b">
         <v>0</v>
       </c>
-      <c r="E28">
+      <c r="E18">
         <v>4</v>
       </c>
-      <c r="F28">
+      <c r="F18">
         <v>1</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B29">
+      <c r="B19">
         <v>1</v>
       </c>
-      <c r="C29">
-        <f>$B$9*B29</f>
-        <v>25.511811023622059</v>
-      </c>
-      <c r="D29" t="b">
+      <c r="C19">
+        <f>$F$10*B19</f>
+        <v>25.511811023622062</v>
+      </c>
+      <c r="D19" t="b">
         <v>0</v>
       </c>
-      <c r="E29">
+      <c r="E19">
         <v>5</v>
       </c>
-      <c r="F29">
+      <c r="F19">
         <v>6</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G19" t="s">
         <v>26</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H19" t="s">
         <v>27</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I19" t="s">
         <v>28</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J19" t="s">
         <v>29</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K19" t="s">
         <v>30</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="5">
-        <f>(($C$2-C24-C25-C26-C28-C29)/B9)-B27</f>
-        <v>0.32253086419752108</v>
-      </c>
-      <c r="C30" s="5">
-        <f>$B$9*B30</f>
-        <v>8.2283464566926678</v>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="5">
+        <f>(($C$2-C14-C15-C16-C18-C19)/F10)-B17</f>
+        <v>0.32253086419751753</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" ref="C14:C20" si="1">$B$10*B20</f>
+        <v>2.9027777777776578</v>
       </c>
     </row>
   </sheetData>
